--- a/TreapAnalysis/results.xlsx
+++ b/TreapAnalysis/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="6075" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depth (linear)" sheetId="2" r:id="rId1"/>
@@ -227,6 +227,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5479,8 +5480,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5541,8 +5542,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5580,6 +5581,7 @@
         <c:crossAx val="570767024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9968,7 +9970,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9990,7 +9992,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306719" cy="6078802"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10336,7 +10338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
